--- a/medicine/Autisme/Monsieur_je-sais-tout/Monsieur_je-sais-tout.xlsx
+++ b/medicine/Autisme/Monsieur_je-sais-tout/Monsieur_je-sais-tout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monsieur je-sais-tout est une comédie dramatique française écrite et réalisée par Stéphan Archinard et François Prévôt-Leygonie sortie en 2018. 
 Le film qui narre les relations entre un enfant autiste Asperger et son oncle, entraîneur de football, est adapté du roman d'Alain Gillot, La Surface de réparation (paru chez Flammarion en 2015).
@@ -514,13 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Un entraîneur de football célibataire ne peut faire autrement que de s'occuper de son neveu, Léo âgé de 13 ans, autiste. Cette rencontre va bouleverser l'existence de l'homme et offrir au jeune Léo un autre parcours de vie[1].
-Synopsis détaillé
-Vincent Barteau, un quadragénaire divorcé, est un ex footballeur professionnel désormais entraîneur d'un club de recrutement de jeunes talents du football. En rupture avec sa famille, il avait définitivement claqué la porte de ses parents dès 18 ans quand son père avait refusé de le voir embrasser la carrière de footballeur. 
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un entraîneur de football célibataire ne peut faire autrement que de s'occuper de son neveu, Léo âgé de 13 ans, autiste. Cette rencontre va bouleverser l'existence de l'homme et offrir au jeune Léo un autre parcours de vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monsieur_je-sais-tout</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_je-sais-tout</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Barteau, un quadragénaire divorcé, est un ex footballeur professionnel désormais entraîneur d'un club de recrutement de jeunes talents du football. En rupture avec sa famille, il avait définitivement claqué la porte de ses parents dès 18 ans quand son père avait refusé de le voir embrasser la carrière de footballeur. 
 Sa sœur, Pauline, personnage compliqué qui court le monde, a abandonné son fils Léonard à ses grands-parents, propriétaires d'un château sur une île de la côte atlantique. 
 Alors que Françoise Barteau, mère de Vincent, est à l'hôpital pour subir un pontage, ses deux employés espagnols, Antonio et Lidia se débarrassent de Léonard, de surnom Léo, pour le confier à Vincent, contre son gré, alors que ce dernier se prépare à partir en Chine pour aller y entraîner une équipe de football. 
-Léo est autiste très nerveux et introverti qui débite des paroles répétitives d'une voix monocorde et fait des calculs sur tout, appliquant des lois statistiques à tous ses choix[2]. Et il est remarquablement doué pour le jeu des échecs.
+Léo est autiste très nerveux et introverti qui débite des paroles répétitives d'une voix monocorde et fait des calculs sur tout, appliquant des lois statistiques à tous ses choix. Et il est remarquablement doué pour le jeu des échecs.
 Vincent, est, dès lors, forcé de traîner Léo, qu'il ne connaissait pas auparavant, sur le terrain de football, et ne sait pas quoi faire de ce neveu encombrant. Mais Léo, malgré sa pathologie, s'intéresse au football et finit par se faire intégrer à l'équipe de jeunes talents. Or Léo se révèle doté d'une puissante capacité à calculer la tactique footballistique et la trajectoire des ballons, car il y applique la gestion des multiples potentialités de mouvement de l'échiquier, et trouve « simplistes », par comparaison, les options tactiques du football qu'il étudie systématiquement sur des vidéos qu'il repasse inlassablement. Il peut alors faire l'affaire dans le rôle de gardien de but, où ses capacités hors norme d'anticipation font merveille. Si bien qu'il émet le vœu de tenter une carrière dans le métier. 
 Il progresse beaucoup dans sa socialisation avec le soutien du médecin du club, la jeune docteure Saubade, malgré la rudesse et l'arrogance de Vincent. Mais malgré lui, celui-ci devient peu à peu plus indulgent et empathique envers Léo qui finit par partager cet engouement pour ce sport.
 Cependant, Léo apprend que Vincent doit partir en Chine. L'enfant va donc devoir regagner une structure adaptée. Il se renferme, dès lors, dans sa « bulle » (en fait il reste mutique) et finit par se retrouver en structure psychiatrique, le chef de service lui ayant diagnostiqué une schizophrénie. Vincent, qui a enfin compris, avec l'aide de Mathilde la jolie docteure, à quel point il s'est attaché à Léonard, va devoir se battre contre les médecins hospitaliers et regagner la confiance du jeune Léo, pour le faire sortir de son mutisme. Et de son impasse psychiatrique.
@@ -528,31 +580,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Monsieur_je-sais-tout</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Monsieur_je-sais-tout</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Monsieur je-sais-tout
@@ -577,31 +631,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Monsieur_je-sais-tout</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Monsieur_je-sais-tout</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Arnaud Ducret : Vincent Barteau, l'entraîneur
 Max Baissette de Malglaive : Léonard Barteau, le neveu de Vincent
@@ -621,39 +677,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Monsieur_je-sais-tout</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_je-sais-tout</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tournage
-Les premières images du film ont été tournées à La Rochelle et dans sa région (Charente maritime)[3]. Les paysages de Nieul-sur-Mer, le port de commerce de La Pallice, L'Houmeau, Marsilly, ainsi que le pont de l'île de Ré servent aussi de décor au film[4].
-Pour se préparer, l'acteur Arnaud Ducret a visionné plusieurs fois Rain Man de Barry Levinson, pour essayer de retrouver le rapport qu'avait Tom Cruise (le frère) avec Dustin Hoffman (la personne autiste)[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -675,10 +698,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières images du film ont été tournées à La Rochelle et dans sa région (Charente maritime). Les paysages de Nieul-sur-Mer, le port de commerce de La Pallice, L'Houmeau, Marsilly, ainsi que le pont de l'île de Ré servent aussi de décor au film.
+Pour se préparer, l'acteur Arnaud Ducret a visionné plusieurs fois Rain Man de Barry Levinson, pour essayer de retrouver le rapport qu'avait Tom Cruise (le frère) avec Dustin Hoffman (la personne autiste).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monsieur_je-sais-tout</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_je-sais-tout</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
